--- a/data/trans_orig/P25C$cursos_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P25C$cursos_2023-Provincia-trans_orig.xlsx
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3466</v>
+        <v>3999</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01351622817342009</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06882661839375798</v>
+        <v>0.0793972747060467</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3480</v>
+        <v>3674</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01083954963484984</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05542098794142861</v>
+        <v>0.05849994807141033</v>
       </c>
     </row>
     <row r="8">
@@ -945,16 +945,16 @@
         <v>49496</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>46056</v>
+        <v>46005</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>50361</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9828199505197587</v>
+        <v>0.9828199505197588</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9145113349651338</v>
+        <v>0.9135115587896602</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -966,7 +966,7 @@
         <v>11882</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9736</v>
+        <v>9689</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>12436</v>
@@ -975,7 +975,7 @@
         <v>0.9554305229651364</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7829209423041378</v>
+        <v>0.779078030706322</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -987,16 +987,16 @@
         <v>61378</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>57394</v>
+        <v>57567</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>62797</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9773959008530513</v>
+        <v>0.9773959008530512</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9139550774215529</v>
+        <v>0.9167119306999559</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4305</v>
+        <v>4356</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01718004948024121</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.085488665034866</v>
+        <v>0.08648844121033951</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3633</v>
+        <v>3291</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09000596299465304</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2921335481798248</v>
+        <v>0.2646038780437507</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -1058,19 +1058,19 @@
         <v>1985</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5676</v>
+        <v>6041</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03160208773342309</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.008691899155911448</v>
+        <v>0.008706039047119881</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.090385111680819</v>
+        <v>0.09620606867605387</v>
       </c>
     </row>
     <row r="10">
@@ -1154,16 +1154,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3720</v>
+        <v>3455</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.009117084157680901</v>
+        <v>0.009117084157680902</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0557340330917829</v>
+        <v>0.05176137576641979</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>3118</v>
+        <v>3404</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003283030644867387</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01682406694036889</v>
+        <v>0.01836730893499067</v>
       </c>
     </row>
     <row r="12">
@@ -1201,19 +1201,19 @@
         <v>22098</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14415</v>
+        <v>14038</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>31786</v>
+        <v>31628</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1863155601211594</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1215349134615888</v>
+        <v>0.1183587853821686</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2679969859206717</v>
+        <v>0.2666681557503887</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1222,19 +1222,19 @@
         <v>2882</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>778</v>
+        <v>939</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7006</v>
+        <v>7163</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0431791406188737</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01165198607060431</v>
+        <v>0.01406274448799024</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1049755986903454</v>
+        <v>0.1073223479497448</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>24</v>
@@ -1243,19 +1243,19 @@
         <v>24980</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>16539</v>
+        <v>16924</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>36228</v>
+        <v>37057</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.1347726278091108</v>
+        <v>0.1347726278091107</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0892329389512428</v>
+        <v>0.09131197310147725</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1954610556770546</v>
+        <v>0.1999296365344438</v>
       </c>
     </row>
     <row r="13">
@@ -1288,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4900</v>
+        <v>5080</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.02169688483470474</v>
+        <v>0.02169688483470475</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07342117885846317</v>
+        <v>0.07611192217980618</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5008</v>
+        <v>5168</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007812973597538141</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02702029913432053</v>
+        <v>0.02788484516328381</v>
       </c>
     </row>
     <row r="14">
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5950</v>
+        <v>5048</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.00845878836988067</v>
+        <v>0.008458788369880668</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05017003046425624</v>
+        <v>0.04256295511925218</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1359,16 +1359,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3612</v>
+        <v>3308</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.009958280587870304</v>
+        <v>0.009958280587870306</v>
       </c>
       <c r="O14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05411682274156202</v>
+        <v>0.04955961219605864</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6144</v>
+        <v>6028</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008998750359729446</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03314742683758419</v>
+        <v>0.0325217962078199</v>
       </c>
     </row>
     <row r="15">
@@ -1406,19 +1406,19 @@
         <v>93165</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>83031</v>
+        <v>82998</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>101269</v>
+        <v>102457</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7855032382591295</v>
+        <v>0.7855032382591294</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7000626623845838</v>
+        <v>0.6997857078212023</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8538340336677804</v>
+        <v>0.8638492262134013</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>78</v>
@@ -1427,19 +1427,19 @@
         <v>59727</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>54465</v>
+        <v>54130</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>63074</v>
+        <v>63181</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.8948805040200669</v>
+        <v>0.894880504020067</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.816040948548544</v>
+        <v>0.8110220197636807</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9450243665927222</v>
+        <v>0.9466236290784605</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>160</v>
@@ -1448,19 +1448,19 @@
         <v>152892</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>141603</v>
+        <v>140632</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>162566</v>
+        <v>162405</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.8248896154313132</v>
+        <v>0.8248896154313131</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.7639818403103392</v>
+        <v>0.7587452474876597</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.877086260283055</v>
+        <v>0.8762187960863232</v>
       </c>
     </row>
     <row r="16">
@@ -1477,19 +1477,19 @@
         <v>3269</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8733</v>
+        <v>9907</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02755822863854988</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007607194927320993</v>
+        <v>0.007469175819247653</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07362856451094563</v>
+        <v>0.08352673033472123</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1498,19 +1498,19 @@
         <v>2117</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>659</v>
+        <v>684</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5269</v>
+        <v>5952</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03171733038227562</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009878762386262707</v>
+        <v>0.01024661112564565</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07894210599793926</v>
+        <v>0.08918220863079017</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1519,19 +1519,19 @@
         <v>5385</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2059</v>
+        <v>2083</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11318</v>
+        <v>11567</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02905590687027591</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01111149597918981</v>
+        <v>0.01123674297016451</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06106503992566373</v>
+        <v>0.06240432746251834</v>
       </c>
     </row>
     <row r="17">
@@ -1612,19 +1612,19 @@
         <v>1886</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4726</v>
+        <v>4673</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.03800392221684319</v>
+        <v>0.03800392221684321</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01146753465322541</v>
+        <v>0.01162364329209228</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09522282403672083</v>
+        <v>0.09415526766636202</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3</v>
@@ -1633,19 +1633,19 @@
         <v>1886</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5120</v>
+        <v>5084</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01607827947044744</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.004939369881264025</v>
+        <v>0.004901299367146263</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04363624343186469</v>
+        <v>0.04333071266957</v>
       </c>
     </row>
     <row r="19">
@@ -1662,19 +1662,19 @@
         <v>2757</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8613</v>
+        <v>7497</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04073686587873149</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009119724646432152</v>
+        <v>0.008958000583892503</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1272477311455096</v>
+        <v>0.1107630093202221</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>3485</v>
+        <v>4877</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01363210597198251</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0702158770833628</v>
+        <v>0.09825173102400711</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -1704,19 +1704,19 @@
         <v>3434</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8656</v>
+        <v>8048</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02926968356335077</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007900167911082546</v>
+        <v>0.007813338745579363</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07377885959623068</v>
+        <v>0.06859281252226093</v>
       </c>
     </row>
     <row r="20">
@@ -1749,16 +1749,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2667</v>
+        <v>3646</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.01189645464325964</v>
+        <v>0.01189645464325965</v>
       </c>
       <c r="O20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0537388075639727</v>
+        <v>0.07344543612143205</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3005</v>
+        <v>2928</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005033020575362047</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02561313592284546</v>
+        <v>0.02495825637896</v>
       </c>
     </row>
     <row r="21">
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5184</v>
+        <v>4722</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01367979130435235</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07659399729526822</v>
+        <v>0.0697585250625167</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1817,19 +1817,19 @@
         <v>1712</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4466</v>
+        <v>4763</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.03449022274716296</v>
+        <v>0.03449022274716297</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01004945490447637</v>
+        <v>0.009908625665697961</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08998333694243811</v>
+        <v>0.09595438339813621</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
@@ -1838,19 +1838,19 @@
         <v>2638</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6669</v>
+        <v>6472</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02248403868516096</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.005558896871467447</v>
+        <v>0.005508019951082361</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05684047767627328</v>
+        <v>0.05516205129201852</v>
       </c>
     </row>
     <row r="22">
@@ -1867,19 +1867,19 @@
         <v>64020</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>57994</v>
+        <v>59253</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>66714</v>
+        <v>66713</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9458049636718742</v>
+        <v>0.9458049636718744</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8567857924985801</v>
+        <v>0.8753885956630909</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9856092548119912</v>
+        <v>0.9855900920573644</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>66</v>
@@ -1888,19 +1888,19 @@
         <v>44635</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40354</v>
+        <v>40571</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>47271</v>
+        <v>47389</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8992545197168541</v>
+        <v>0.8992545197168542</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8130041616713151</v>
+        <v>0.8173645611243958</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9523438326244135</v>
+        <v>0.9547314728643727</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>153</v>
@@ -1909,19 +1909,19 @@
         <v>108655</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>102462</v>
+        <v>102816</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>112348</v>
+        <v>112620</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.92611091622299</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8733270396397762</v>
+        <v>0.8763442668769095</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9575884983181825</v>
+        <v>0.9599048206954828</v>
       </c>
     </row>
     <row r="23">
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4653</v>
+        <v>4679</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0134581704493942</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06874789551344067</v>
+        <v>0.06912341015767681</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4547</v>
+        <v>4709</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02794433608963926</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09161509764724259</v>
+        <v>0.09487039569310188</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3</v>
@@ -1980,19 +1980,19 @@
         <v>2298</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6477</v>
+        <v>6879</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01958681733721009</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005790978664219217</v>
+        <v>0.00581097279660639</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05520537980210304</v>
+        <v>0.05862879312826461</v>
       </c>
     </row>
     <row r="24">
@@ -2063,16 +2063,16 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4286</v>
+        <v>3064</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.005464835963998113</v>
+        <v>0.005464835963998114</v>
       </c>
       <c r="H25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03989671209174103</v>
+        <v>0.02851741348120385</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2549</v>
+        <v>2532</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.007643827399005516</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03915416066102962</v>
+        <v>0.03889624992413238</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3975</v>
+        <v>3858</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006286975046104796</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0230416190163209</v>
+        <v>0.02236366420965731</v>
       </c>
     </row>
     <row r="26">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3533</v>
+        <v>4370</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01123585124811898</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.054269308920644</v>
+        <v>0.06712872047756609</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3831</v>
+        <v>4034</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00423931562254368</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02220774326863383</v>
+        <v>0.02338272199886958</v>
       </c>
     </row>
     <row r="27">
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6815</v>
+        <v>6738</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01809405962803909</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.06343921994156924</v>
+        <v>0.06272319257059562</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3</v>
@@ -2215,19 +2215,19 @@
         <v>1702</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>4867</v>
+        <v>4637</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02614186922343333</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.008250708410345623</v>
+        <v>0.008412759853234572</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.07476550476177517</v>
+        <v>0.07123373133699369</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5</v>
@@ -2236,19 +2236,19 @@
         <v>3646</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1386</v>
+        <v>1090</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>8860</v>
+        <v>8541</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.02113051892174177</v>
+        <v>0.02113051892174176</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.008031440625108462</v>
+        <v>0.006316232330059607</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.05135480249707609</v>
+        <v>0.04950409545871089</v>
       </c>
     </row>
     <row r="28">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2530</v>
+        <v>2590</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0076473065281029</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03886922038886705</v>
+        <v>0.03979457268959984</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2519</v>
+        <v>3130</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.002885348454608127</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01459891913383307</v>
+        <v>0.01814240420290792</v>
       </c>
     </row>
     <row r="29">
@@ -2328,19 +2328,19 @@
         <v>88229</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>76841</v>
+        <v>77459</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>95288</v>
+        <v>95788</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8212629183792829</v>
+        <v>0.8212629183792831</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7152637357513828</v>
+        <v>0.7210150158306486</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8869715697814124</v>
+        <v>0.8916199545039322</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>84</v>
@@ -2349,19 +2349,19 @@
         <v>58551</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>54010</v>
+        <v>53787</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>61598</v>
+        <v>61522</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8994894733501178</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8297159818689266</v>
+        <v>0.826290959289502</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9462999510592136</v>
+        <v>0.9451228954051817</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>180</v>
@@ -2370,19 +2370,19 @@
         <v>146780</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>134942</v>
+        <v>133782</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>155059</v>
+        <v>155088</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8507779991027972</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7821570816042637</v>
+        <v>0.7754360170808693</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8987635062860975</v>
+        <v>0.8989316892735806</v>
       </c>
     </row>
     <row r="30">
@@ -2399,19 +2399,19 @@
         <v>15016</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8636</v>
+        <v>7696</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26606</v>
+        <v>25176</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1397741678998747</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08038720953333155</v>
+        <v>0.07163586937126798</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2476524191669108</v>
+        <v>0.2343464035471118</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>6</v>
@@ -2420,19 +2420,19 @@
         <v>3114</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1225</v>
+        <v>1038</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6535</v>
+        <v>6273</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0478416722512217</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01881998529882303</v>
+        <v>0.01593867573856208</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1003979400558022</v>
+        <v>0.09636686460267374</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>19</v>
@@ -2441,19 +2441,19 @@
         <v>18130</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>10637</v>
+        <v>11034</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>28834</v>
+        <v>30264</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.1050878004483646</v>
+        <v>0.1050878004483645</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06165313331890521</v>
+        <v>0.06395669896473238</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.167126897384125</v>
+        <v>0.1754183301488078</v>
       </c>
     </row>
     <row r="31">
@@ -2473,16 +2473,16 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6533</v>
+        <v>6496</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.01540401812880513</v>
+        <v>0.01540401812880514</v>
       </c>
       <c r="H31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06080932397502022</v>
+        <v>0.0604710167735627</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6213</v>
+        <v>6766</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.009592042403839734</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03601051719361521</v>
+        <v>0.03921736838588896</v>
       </c>
     </row>
     <row r="32">
@@ -2738,7 +2738,7 @@
         <v>8443</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>6540</v>
+        <v>6621</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>8832</v>
@@ -2747,7 +2747,7 @@
         <v>0.9559679973717401</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.7405178098948976</v>
+        <v>0.7496516573774611</v>
       </c>
       <c r="P36" s="6" t="n">
         <v>1</v>
@@ -2759,7 +2759,7 @@
         <v>24140</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>22520</v>
+        <v>22199</v>
       </c>
       <c r="T36" s="5" t="n">
         <v>24529</v>
@@ -2768,7 +2768,7 @@
         <v>0.9841454199280705</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.9180827970947892</v>
+        <v>0.9050232730925842</v>
       </c>
       <c r="W36" s="6" t="n">
         <v>1</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>2292</v>
+        <v>2211</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.04403200262825985</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2594821901051004</v>
+        <v>0.2503483426225384</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2009</v>
+        <v>2330</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.0158545800719295</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.08191720290521055</v>
+        <v>0.0949767269074169</v>
       </c>
     </row>
     <row r="39">
@@ -3043,19 +3043,19 @@
         <v>1863</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4589</v>
+        <v>4482</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.04183123397843255</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01054512924489546</v>
+        <v>0.01051360084607235</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1030327077708151</v>
+        <v>0.1006422270139228</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>0</v>
@@ -3077,19 +3077,19 @@
         <v>1863</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4436</v>
+        <v>4432</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03324637074243896</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.008436409995365117</v>
+        <v>0.008077043946026378</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.07916479835085474</v>
+        <v>0.07908603914501661</v>
       </c>
     </row>
     <row r="43">
@@ -3106,19 +3106,19 @@
         <v>42526</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>39843</v>
+        <v>39820</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>44000</v>
+        <v>44061</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.9548720162509572</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.8946156881974499</v>
+        <v>0.8940982832763444</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.9879679560525575</v>
+        <v>0.9893258206436635</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>20</v>
@@ -3140,19 +3140,19 @@
         <v>54026</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>50980</v>
+        <v>51034</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>55508</v>
+        <v>55542</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.9641334587606718</v>
+        <v>0.9641334587606717</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.9097811508558411</v>
+        <v>0.9107429815677438</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.9905796368483425</v>
+        <v>0.9911808934676064</v>
       </c>
     </row>
     <row r="44">
@@ -3219,16 +3219,16 @@
         <v>0</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>2926</v>
+        <v>3114</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.01401417966895904</v>
+        <v>0.01401417966895903</v>
       </c>
       <c r="H45" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.06569301682114853</v>
+        <v>0.06992683760136462</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>2992</v>
+        <v>3145</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.01113810348424297</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.05338892189617489</v>
+        <v>0.05611990572934327</v>
       </c>
     </row>
     <row r="46">
@@ -3283,19 +3283,19 @@
         <v>2957</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>8064</v>
+        <v>7691</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02077094304985075</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.00568256035185398</v>
+        <v>0.005666453148960761</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.05664229563285081</v>
+        <v>0.05402748555860352</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>4</v>
@@ -3304,19 +3304,19 @@
         <v>3097</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1048</v>
+        <v>714</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>7333</v>
+        <v>7901</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02882964841066854</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.00975673534782232</v>
+        <v>0.006651817311939609</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.06827650219759281</v>
+        <v>0.07356429088565908</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>7</v>
@@ -3325,19 +3325,19 @@
         <v>6053</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>2498</v>
+        <v>2825</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>12099</v>
+        <v>11759</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02423644158982917</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.0100016332211083</v>
+        <v>0.01131224454841183</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.04843965992769376</v>
+        <v>0.04707961089023851</v>
       </c>
     </row>
     <row r="47">
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>4514</v>
+        <v>5149</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.006119348096611189</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.03170734023651536</v>
+        <v>0.03616745659030079</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>7</v>
@@ -3375,19 +3375,19 @@
         <v>4817</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>2057</v>
+        <v>2014</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>9893</v>
+        <v>9088</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.04484781194000777</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.01914666133686644</v>
+        <v>0.01875420530109972</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.09211021095347943</v>
+        <v>0.08461403067900319</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>8</v>
@@ -3396,19 +3396,19 @@
         <v>5688</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2710</v>
+        <v>2733</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>10729</v>
+        <v>10625</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.0227738141548265</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.010850998428035</v>
+        <v>0.01094073213154173</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.04295791014741365</v>
+        <v>0.04253855415004346</v>
       </c>
     </row>
     <row r="48">
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4981</v>
+        <v>4621</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.006821111960014472</v>
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.03498829224834806</v>
+        <v>0.03246324410162351</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>4</v>
@@ -3446,19 +3446,19 @@
         <v>2738</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>702</v>
+        <v>675</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>6838</v>
+        <v>7463</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.02548744496783804</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.006538077992664908</v>
+        <v>0.006288875566845474</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.06366533713019659</v>
+        <v>0.06948297937485552</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>5</v>
@@ -3467,19 +3467,19 @@
         <v>3709</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1347</v>
+        <v>1354</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>8166</v>
+        <v>8675</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.01484822635234398</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.005394382028211824</v>
+        <v>0.005422387509526371</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.03269566424800725</v>
+        <v>0.03473295684256659</v>
       </c>
     </row>
     <row r="49">
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>4157</v>
+        <v>4105</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.005756140633842222</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.02919748466550059</v>
+        <v>0.02883643144000107</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>7</v>
@@ -3517,19 +3517,19 @@
         <v>4793</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>9067</v>
+        <v>9187</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.0446235855467209</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.01882058585355998</v>
+        <v>0.01868916129180272</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.08442095269250437</v>
+        <v>0.08553818834548559</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>8</v>
@@ -3538,19 +3538,19 @@
         <v>5612</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>2247</v>
+        <v>2685</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>10166</v>
+        <v>10547</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.02247037295373483</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.008995055320705044</v>
+        <v>0.01075048111385582</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.04070253175984557</v>
+        <v>0.04222543346459994</v>
       </c>
     </row>
     <row r="50">
@@ -3567,19 +3567,19 @@
         <v>134740</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>127155</v>
+        <v>128624</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>138804</v>
+        <v>138810</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.9464778145862353</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.89319761570286</v>
+        <v>0.9035182680486118</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.975024622843875</v>
+        <v>0.9750668818766954</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>124</v>
@@ -3588,19 +3588,19 @@
         <v>95407</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>88932</v>
+        <v>89560</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>99962</v>
+        <v>100509</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.8882693807384696</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.82798535618642</v>
+        <v>0.8338300293323808</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.9306797857394348</v>
+        <v>0.9357723841293186</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>259</v>
@@ -3609,19 +3609,19 @@
         <v>230147</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>220997</v>
+        <v>221784</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>236730</v>
+        <v>236624</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.9214463444577145</v>
+        <v>0.9214463444577143</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.8848126644670405</v>
+        <v>0.8879631581309574</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.9478029394905692</v>
+        <v>0.9473797789471338</v>
       </c>
     </row>
     <row r="51">
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>6546</v>
+        <v>6627</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.01405464167344611</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.0459842127969325</v>
+        <v>0.0465526393083369</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>4</v>
@@ -3659,19 +3659,19 @@
         <v>3761</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>10588</v>
+        <v>9974</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.03501610080321804</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.006818663513672807</v>
+        <v>0.00662150043746952</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.09857353396859111</v>
+        <v>0.09285866681689439</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>6</v>
@@ -3680,19 +3680,19 @@
         <v>5762</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>2386</v>
+        <v>2279</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>12357</v>
+        <v>14503</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.02306873298930856</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.00955303966307126</v>
+        <v>0.009125138184479355</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.04947576963175721</v>
+        <v>0.05806622316292002</v>
       </c>
     </row>
     <row r="52">
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>5234</v>
+        <v>5418</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.009165226277777723</v>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.04609970544365695</v>
+        <v>0.04771740903208146</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>6243</v>
+        <v>5169</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.006595378847891097</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.03956427507552043</v>
+        <v>0.03275742936413165</v>
       </c>
     </row>
     <row r="54">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>6888</v>
+        <v>6895</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.01742743301719436</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.06066397039168206</v>
+        <v>0.06072676183938567</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1</v>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>3829</v>
+        <v>3886</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.01765062619194561</v>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.08655863446396685</v>
+        <v>0.08784137268239313</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>3</v>
@@ -3865,19 +3865,19 @@
         <v>2760</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>8386</v>
+        <v>7982</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.01749001438606829</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.005037479248493071</v>
+        <v>0.004934999170547321</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.05314810979393655</v>
+        <v>0.05058793726303157</v>
       </c>
     </row>
     <row r="55">
@@ -3894,19 +3894,19 @@
         <v>2008</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>5987</v>
+        <v>5420</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.01768800544754931</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.005491274304751767</v>
+        <v>0.005692528346379629</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.05272747717260141</v>
+        <v>0.0477341458829059</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>3179</v>
+        <v>3705</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.01389146607965821</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.0718504380268</v>
+        <v>0.08374876302939445</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>4</v>
@@ -3936,19 +3936,19 @@
         <v>2623</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>6492</v>
+        <v>5974</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.01662348978352317</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.004177034471641868</v>
+        <v>0.004185931215130316</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.04114302663433671</v>
+        <v>0.03786037337644961</v>
       </c>
     </row>
     <row r="56">
@@ -3965,19 +3965,19 @@
         <v>5053</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>9167</v>
+        <v>9405</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.04450167768476841</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.0189297171801242</v>
+        <v>0.0188999325685043</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.08073353723757196</v>
+        <v>0.08283571819442143</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>4</v>
@@ -3986,19 +3986,19 @@
         <v>2790</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>6635</v>
+        <v>6488</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.06305968296259852</v>
+        <v>0.06305968296259853</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.01665143401261704</v>
+        <v>0.01670734955515551</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.1499634139572126</v>
+        <v>0.146641510019162</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>11</v>
@@ -4007,19 +4007,19 @@
         <v>7843</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>4277</v>
+        <v>3779</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>13689</v>
+        <v>12857</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.04970517629152815</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.02710653919196895</v>
+        <v>0.02395118512352503</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.08675623103641221</v>
+        <v>0.08148220972235271</v>
       </c>
     </row>
     <row r="57">
@@ -4036,19 +4036,19 @@
         <v>102782</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>94808</v>
+        <v>97079</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>107316</v>
+        <v>108108</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.905237523769609</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.8350076049379933</v>
+        <v>0.8550040632601106</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.945162331993216</v>
+        <v>0.9521408110666095</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>55</v>
@@ -4057,19 +4057,19 @@
         <v>40056</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>35728</v>
+        <v>36080</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>42435</v>
+        <v>42823</v>
       </c>
       <c r="N57" s="6" t="n">
-        <v>0.9053982247657976</v>
+        <v>0.9053982247657977</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.8075758177536254</v>
+        <v>0.8155414886428848</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.9591726639788809</v>
+        <v>0.9679390245246563</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>181</v>
@@ -4078,19 +4078,19 @@
         <v>142838</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>135387</v>
+        <v>135728</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>148112</v>
+        <v>148398</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.9052825828908481</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.8580570051174605</v>
+        <v>0.8602176177775913</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.9387098286637019</v>
+        <v>0.9405170672037929</v>
       </c>
     </row>
     <row r="58">
@@ -4107,19 +4107,19 @@
         <v>2368</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>7454</v>
+        <v>6437</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.02085666481401306</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.005926398806353209</v>
+        <v>0</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.06564971705671582</v>
+        <v>0.05669657640294237</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>0</v>
@@ -4141,19 +4141,19 @@
         <v>2368</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>6551</v>
+        <v>6864</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.01500864264370891</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.004250576812924749</v>
+        <v>0.004232365314482611</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.04151802296232876</v>
+        <v>0.04350479150905696</v>
       </c>
     </row>
     <row r="59">
@@ -4221,19 +4221,19 @@
         <v>4585</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>1657</v>
+        <v>1701</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>10489</v>
+        <v>10573</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.006944163213848445</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.002509826645403368</v>
+        <v>0.002576486644831449</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.01588789080339479</v>
+        <v>0.01601502253598094</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>9</v>
@@ -4242,19 +4242,19 @@
         <v>6089</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>2691</v>
+        <v>3036</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>12252</v>
+        <v>11487</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.01664149189721819</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.007353898217040997</v>
+        <v>0.008297108238052317</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.03348647827274025</v>
+        <v>0.03139476595046616</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>14</v>
@@ -4263,19 +4263,19 @@
         <v>10674</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>5852</v>
+        <v>5666</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>17707</v>
+        <v>17393</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.01040203845404888</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.005702750263908251</v>
+        <v>0.005521498094921115</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.01725605125594193</v>
+        <v>0.01695029292335017</v>
       </c>
     </row>
     <row r="61">
@@ -4292,19 +4292,19 @@
         <v>27705</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>18807</v>
+        <v>18284</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>39869</v>
+        <v>40983</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.04196366107413282</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.02848530698147079</v>
+        <v>0.02769325028483904</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.06038681308309774</v>
+        <v>0.0620748873319604</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>14</v>
@@ -4313,19 +4313,19 @@
         <v>9888</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>5565</v>
+        <v>5729</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>16496</v>
+        <v>16188</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.02702402192437316</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.01520908834573048</v>
+        <v>0.01565730757290641</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.04508420417013683</v>
+        <v>0.04424375359401278</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>40</v>
@@ -4334,19 +4334,19 @@
         <v>37593</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>27974</v>
+        <v>27555</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>51758</v>
+        <v>50121</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.0366364818064985</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.02726200476101445</v>
+        <v>0.02685426984227813</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.050441035478057</v>
+        <v>0.04884612640171865</v>
       </c>
     </row>
     <row r="62">
@@ -4363,19 +4363,19 @@
         <v>4923</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>1703</v>
+        <v>2042</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>10561</v>
+        <v>10164</v>
       </c>
       <c r="G62" s="6" t="n">
-        <v>0.00745699602364988</v>
+        <v>0.007456996023649879</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.002579617397570494</v>
+        <v>0.003092540472780464</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.01599621755940292</v>
+        <v>0.0153951064767929</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>11</v>
@@ -4384,19 +4384,19 @@
         <v>7092</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>3895</v>
+        <v>3589</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>12764</v>
+        <v>12540</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.01938400141814601</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.01064531495830581</v>
+        <v>0.009809179277560988</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.03488596073916921</v>
+        <v>0.03427278804969499</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>17</v>
@@ -4405,19 +4405,19 @@
         <v>12016</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>7246</v>
+        <v>7133</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>18833</v>
+        <v>18652</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.01170992979437918</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.007061578504998904</v>
+        <v>0.006951024410641445</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.01835334350998698</v>
+        <v>0.01817702244020405</v>
       </c>
     </row>
     <row r="63">
@@ -4434,19 +4434,19 @@
         <v>10345</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>6001</v>
+        <v>6084</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>16754</v>
+        <v>17066</v>
       </c>
       <c r="G63" s="6" t="n">
-        <v>0.0156692872289874</v>
+        <v>0.01566928722898739</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.009090066451794642</v>
+        <v>0.009215698926419028</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.02537586947075615</v>
+        <v>0.02584937272819185</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>16</v>
@@ -4455,19 +4455,19 @@
         <v>10457</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>5889</v>
+        <v>6505</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>16020</v>
+        <v>16836</v>
       </c>
       <c r="N63" s="6" t="n">
         <v>0.02857999383712606</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.01609507592326599</v>
+        <v>0.01777836534581995</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.04378454501776376</v>
+        <v>0.04601404140220917</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>31</v>
@@ -4476,19 +4476,19 @@
         <v>20802</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>14831</v>
+        <v>14188</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>29944</v>
+        <v>28121</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.0202729893588673</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.01445394133288805</v>
+        <v>0.01382652726175824</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.02918170949054575</v>
+        <v>0.02740549560360868</v>
       </c>
     </row>
     <row r="64">
@@ -4505,19 +4505,19 @@
         <v>590654</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>573049</v>
+        <v>572430</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>605382</v>
+        <v>605090</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.894634102091688</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.8679674533782626</v>
+        <v>0.8670308574323653</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.9169416397889747</v>
+        <v>0.9164981926433304</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>470</v>
@@ -4526,19 +4526,19 @@
         <v>330202</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>319635</v>
+        <v>320604</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>338618</v>
+        <v>339063</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.9024613648130564</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.8735816153412042</v>
+        <v>0.8762292197343785</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.9254627508654043</v>
+        <v>0.9266796079388769</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>1158</v>
@@ -4547,19 +4547,19 @@
         <v>920856</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>902537</v>
+        <v>902541</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>938056</v>
+        <v>938174</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.8974251488682274</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.8795726797158098</v>
+        <v>0.8795757053328891</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.9141870674529152</v>
+        <v>0.9143024162964509</v>
       </c>
     </row>
     <row r="65">
@@ -4576,19 +4576,19 @@
         <v>24430</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>16171</v>
+        <v>15125</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>38366</v>
+        <v>37848</v>
       </c>
       <c r="G65" s="6" t="n">
-        <v>0.03700244563604546</v>
+        <v>0.03700244563604547</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.02449291850169862</v>
+        <v>0.02290907820717243</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.05811094960363285</v>
+        <v>0.05732656723024927</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>17</v>
@@ -4597,19 +4597,19 @@
         <v>11498</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>7231</v>
+        <v>6600</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>18786</v>
+        <v>18528</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.03142607781560275</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.01976397785951483</v>
+        <v>0.01803770349200864</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.05134221283591692</v>
+        <v>0.05063811536776375</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>40</v>
@@ -4618,19 +4618,19 @@
         <v>35928</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>25916</v>
+        <v>26600</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>50984</v>
+        <v>50893</v>
       </c>
       <c r="U65" s="6" t="n">
-        <v>0.03501402337604439</v>
+        <v>0.03501402337604438</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.02525629866208581</v>
+        <v>0.02592352117620974</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.0496871103077462</v>
+        <v>0.0495980774712686</v>
       </c>
     </row>
     <row r="66">
@@ -4647,19 +4647,19 @@
         <v>2279</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>6603</v>
+        <v>6885</v>
       </c>
       <c r="G66" s="6" t="n">
         <v>0.003451893499227466</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.0008712579064322233</v>
+        <v>0.0008634239635678775</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.01000150160717998</v>
+        <v>0.01042796307259804</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>1</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>1586</v>
+        <v>1965</v>
       </c>
       <c r="N66" s="6" t="n">
         <v>0.001062858486171529</v>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.004335942564322261</v>
+        <v>0.005370147835688709</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>4</v>
@@ -4689,19 +4689,19 @@
         <v>2668</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>575</v>
+        <v>622</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>7118</v>
+        <v>6997</v>
       </c>
       <c r="U66" s="6" t="n">
         <v>0.002600010956173618</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.0005606026291606271</v>
+        <v>0.0006062392325595361</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.006936989383118132</v>
+        <v>0.006819195980587522</v>
       </c>
     </row>
     <row r="67">
